--- a/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_sorted_Unif_beta_versionB_deltax_22-Dec-2023.xlsx
+++ b/MATLAB_codes/Results/Excels/ewpo_testing_fullpairwise_sorted_Unif_beta_versionB_deltax_22-Dec-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFD123D4-9E61-4E21-A8C7-9930548B5FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{481132AE-474F-4C02-BD58-EB16863D8159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="1425" windowWidth="7500" windowHeight="7875" xr2:uid="{B7C51059-B3E2-4858-812B-473E0FEC5E4E}"/>
   </bookViews>
